--- a/database testing.xlsx
+++ b/database testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTCS5607\5607project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579BC1FE-6371-4001-B5C9-60207254F781}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E4A0A8-474E-44E9-865F-A8C07237C30A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -398,22 +398,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -432,9 +445,48 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -444,59 +496,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V56" sqref="V56:X56"/>
+    <sheetView tabSelected="1" topLeftCell="H34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T57" sqref="T57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -790,80 +790,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="40"/>
-      <c r="N1" s="37" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="39"/>
+      <c r="N1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="38"/>
+      <c r="O1" s="34"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="S1" s="39" t="s">
+      <c r="R1" s="34"/>
+      <c r="S1" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="40"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="39"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="26" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="41" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="42"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="34"/>
       <c r="P2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="26" t="s">
+      <c r="R2" s="34"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="38"/>
+      <c r="V2" s="34"/>
       <c r="W2" s="41" t="s">
         <v>50</v>
       </c>
@@ -894,10 +894,10 @@
       <c r="X3" s="4"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="8"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -907,10 +907,10 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="N4" s="43" t="s">
+      <c r="N4" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="27"/>
+      <c r="O4" s="45"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
@@ -946,52 +946,52 @@
       <c r="X5" s="4"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28">
+      <c r="E6" s="45"/>
+      <c r="F6" s="46">
         <v>43952</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="26" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="30" t="s">
+      <c r="I6" s="45"/>
+      <c r="J6" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="N6" s="26" t="s">
+      <c r="K6" s="43"/>
+      <c r="N6" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="27"/>
+      <c r="O6" s="45"/>
       <c r="P6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Q6" s="26" t="s">
+      <c r="Q6" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="R6" s="27"/>
-      <c r="S6" s="28">
+      <c r="R6" s="45"/>
+      <c r="S6" s="46">
         <v>43978</v>
       </c>
-      <c r="T6" s="29"/>
-      <c r="U6" s="26" t="s">
+      <c r="T6" s="47"/>
+      <c r="U6" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="V6" s="27"/>
-      <c r="W6" s="30" t="s">
+      <c r="V6" s="45"/>
+      <c r="W6" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="X6" s="30"/>
+      <c r="X6" s="43"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
@@ -1049,10 +1049,10 @@
         <v>13</v>
       </c>
       <c r="C10" s="32"/>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="35"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="31" t="s">
         <v>3</v>
       </c>
@@ -1070,10 +1070,10 @@
         <v>13</v>
       </c>
       <c r="P10" s="32"/>
-      <c r="Q10" s="34" t="s">
+      <c r="Q10" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="R10" s="35"/>
+      <c r="R10" s="36"/>
       <c r="S10" s="31" t="s">
         <v>3</v>
       </c>
@@ -1087,10 +1087,10 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="32"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
@@ -1098,10 +1098,10 @@
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
       <c r="N11" s="32"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
       <c r="S11" s="32"/>
       <c r="T11" s="32"/>
       <c r="U11" s="32"/>
@@ -1113,1632 +1113,1632 @@
       <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="14" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="16" t="s">
+      <c r="E12" s="20"/>
+      <c r="F12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="16" t="s">
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
       <c r="N12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="O12" s="14" t="s">
+      <c r="O12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="14" t="s">
+      <c r="P12" s="27"/>
+      <c r="Q12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="R12" s="14"/>
-      <c r="S12" s="16" t="s">
+      <c r="R12" s="20"/>
+      <c r="S12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="T12" s="17"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="16" t="s">
+      <c r="T12" s="15"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="W12" s="17"/>
-      <c r="X12" s="18"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="16"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="14" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="18"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="16"/>
       <c r="N13" s="13"/>
-      <c r="O13" s="14" t="s">
+      <c r="O13" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="14" t="s">
+      <c r="P13" s="21"/>
+      <c r="Q13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="R13" s="14"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="18"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="16"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="14" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="18"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="16"/>
       <c r="N14" s="13"/>
-      <c r="O14" s="14" t="s">
+      <c r="O14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="14" t="s">
+      <c r="P14" s="21"/>
+      <c r="Q14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="R14" s="14"/>
-      <c r="S14" s="16" t="s">
+      <c r="R14" s="20"/>
+      <c r="S14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="T14" s="17"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="16" t="s">
+      <c r="T14" s="15"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="W14" s="17"/>
-      <c r="X14" s="18"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="16"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="14" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="18"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="16"/>
       <c r="N15" s="13"/>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="14" t="s">
+      <c r="P15" s="21"/>
+      <c r="Q15" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="R15" s="14"/>
-      <c r="S15" s="16" t="s">
+      <c r="R15" s="20"/>
+      <c r="S15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="T15" s="17"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="16" t="s">
+      <c r="T15" s="15"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="W15" s="17"/>
-      <c r="X15" s="18"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="16"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="14" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="18"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="16"/>
       <c r="N16" s="13"/>
-      <c r="O16" s="14" t="s">
+      <c r="O16" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="14" t="s">
+      <c r="P16" s="21"/>
+      <c r="Q16" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="R16" s="14"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="18"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="16"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23" t="s">
+      <c r="C17" s="27"/>
+      <c r="D17" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="16" t="s">
+      <c r="E17" s="29"/>
+      <c r="F17" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="16" t="s">
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="18"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="16"/>
       <c r="N17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="14" t="s">
+      <c r="O17" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="23" t="s">
+      <c r="P17" s="27"/>
+      <c r="Q17" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="R17" s="24"/>
-      <c r="S17" s="16" t="s">
+      <c r="R17" s="29"/>
+      <c r="S17" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="T17" s="17"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="16" t="s">
+      <c r="T17" s="15"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="W17" s="17"/>
-      <c r="X17" s="18"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="16"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="23" t="s">
+      <c r="C18" s="21"/>
+      <c r="D18" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16"/>
       <c r="N18" s="13"/>
-      <c r="O18" s="14" t="s">
+      <c r="O18" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="23" t="s">
+      <c r="P18" s="21"/>
+      <c r="Q18" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="R18" s="24"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="18"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="16"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="20" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="18"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="16"/>
       <c r="N19" s="13"/>
-      <c r="O19" s="14" t="s">
+      <c r="O19" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="20" t="s">
+      <c r="P19" s="21"/>
+      <c r="Q19" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="R19" s="21"/>
-      <c r="S19" s="16" t="s">
+      <c r="R19" s="26"/>
+      <c r="S19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T19" s="17"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="16" t="s">
+      <c r="T19" s="15"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="W19" s="17"/>
-      <c r="X19" s="18"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="16"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="23" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="16"/>
       <c r="N20" s="13"/>
-      <c r="O20" s="14" t="s">
+      <c r="O20" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="23" t="s">
+      <c r="P20" s="21"/>
+      <c r="Q20" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="R20" s="24"/>
-      <c r="S20" s="16" t="s">
+      <c r="R20" s="29"/>
+      <c r="S20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="T20" s="17"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="16" t="s">
+      <c r="T20" s="15"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="W20" s="17"/>
-      <c r="X20" s="18"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="16"/>
     </row>
     <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="20" t="s">
+      <c r="C21" s="21"/>
+      <c r="D21" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="18"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="16"/>
       <c r="N21" s="13"/>
-      <c r="O21" s="14" t="s">
+      <c r="O21" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="20" t="s">
+      <c r="P21" s="21"/>
+      <c r="Q21" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="R21" s="21"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="18"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="16"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="14" t="s">
+      <c r="C22" s="27"/>
+      <c r="D22" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="16" t="s">
+      <c r="E22" s="20"/>
+      <c r="F22" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="16" t="s">
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="18"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="16"/>
       <c r="N22" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="14" t="s">
+      <c r="O22" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="14" t="s">
+      <c r="P22" s="27"/>
+      <c r="Q22" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="R22" s="14"/>
-      <c r="S22" s="16" t="s">
+      <c r="R22" s="20"/>
+      <c r="S22" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="T22" s="17"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="16" t="s">
+      <c r="T22" s="15"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="W22" s="17"/>
-      <c r="X22" s="18"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="16"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="14" t="s">
+      <c r="C23" s="21"/>
+      <c r="D23" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="18"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="16"/>
       <c r="N23" s="13"/>
-      <c r="O23" s="14" t="s">
+      <c r="O23" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="14" t="s">
+      <c r="P23" s="21"/>
+      <c r="Q23" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="R23" s="14"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="18"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="16"/>
     </row>
     <row r="24" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="20" t="s">
+      <c r="C24" s="21"/>
+      <c r="D24" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="18"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="16"/>
       <c r="N24" s="13"/>
-      <c r="O24" s="14" t="s">
+      <c r="O24" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="20" t="s">
+      <c r="P24" s="21"/>
+      <c r="Q24" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="R24" s="21"/>
-      <c r="S24" s="16" t="s">
+      <c r="R24" s="26"/>
+      <c r="S24" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T24" s="17"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="16" t="s">
+      <c r="T24" s="15"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="W24" s="17"/>
-      <c r="X24" s="18"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="16"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="14" t="s">
+      <c r="C25" s="21"/>
+      <c r="D25" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="18"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="16"/>
       <c r="N25" s="13"/>
-      <c r="O25" s="14" t="s">
+      <c r="O25" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="14" t="s">
+      <c r="P25" s="21"/>
+      <c r="Q25" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="R25" s="14"/>
-      <c r="S25" s="16" t="s">
+      <c r="R25" s="20"/>
+      <c r="S25" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="T25" s="17"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="16" t="s">
+      <c r="T25" s="15"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="W25" s="17"/>
-      <c r="X25" s="18"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="16"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="20" t="s">
+      <c r="C26" s="21"/>
+      <c r="D26" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="18"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="16"/>
       <c r="N26" s="13"/>
-      <c r="O26" s="14" t="s">
+      <c r="O26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="20" t="s">
+      <c r="P26" s="21"/>
+      <c r="Q26" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="R26" s="21"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="18"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="16"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23" t="s">
+      <c r="C27" s="27"/>
+      <c r="D27" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="16" t="s">
+      <c r="E27" s="29"/>
+      <c r="F27" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="16" t="s">
+      <c r="G27" s="15"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="J27" s="17"/>
-      <c r="K27" s="18"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="16"/>
       <c r="N27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="O27" s="14" t="s">
+      <c r="O27" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="23" t="s">
+      <c r="P27" s="27"/>
+      <c r="Q27" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="R27" s="24"/>
-      <c r="S27" s="16" t="s">
+      <c r="R27" s="29"/>
+      <c r="S27" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="T27" s="17"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="16" t="s">
+      <c r="T27" s="15"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="W27" s="17"/>
-      <c r="X27" s="18"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="16"/>
     </row>
     <row r="28" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="23" t="s">
+      <c r="C28" s="21"/>
+      <c r="D28" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="18"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="16"/>
       <c r="N28" s="13"/>
-      <c r="O28" s="14" t="s">
+      <c r="O28" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="23" t="s">
+      <c r="P28" s="21"/>
+      <c r="Q28" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="R28" s="24"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="18"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="16"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="20" t="s">
+      <c r="C29" s="21"/>
+      <c r="D29" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="18"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="16"/>
       <c r="N29" s="13"/>
-      <c r="O29" s="14" t="s">
+      <c r="O29" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="20" t="s">
+      <c r="P29" s="21"/>
+      <c r="Q29" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="R29" s="21"/>
-      <c r="S29" s="16" t="s">
+      <c r="R29" s="26"/>
+      <c r="S29" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T29" s="17"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="16" t="s">
+      <c r="T29" s="15"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="W29" s="17"/>
-      <c r="X29" s="18"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="16"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="23" t="s">
+      <c r="C30" s="21"/>
+      <c r="D30" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="18"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="16"/>
       <c r="N30" s="13"/>
-      <c r="O30" s="14" t="s">
+      <c r="O30" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="23" t="s">
+      <c r="P30" s="21"/>
+      <c r="Q30" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="R30" s="24"/>
-      <c r="S30" s="16" t="s">
+      <c r="R30" s="29"/>
+      <c r="S30" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="T30" s="17"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="16" t="s">
+      <c r="T30" s="15"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="W30" s="17"/>
-      <c r="X30" s="18"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="16"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="20" t="s">
+      <c r="C31" s="21"/>
+      <c r="D31" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="18"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="16"/>
       <c r="N31" s="13"/>
-      <c r="O31" s="14" t="s">
+      <c r="O31" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="20" t="s">
+      <c r="P31" s="21"/>
+      <c r="Q31" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="R31" s="21"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="18"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="16"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="14" t="s">
+      <c r="C32" s="27"/>
+      <c r="D32" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="16" t="s">
+      <c r="E32" s="20"/>
+      <c r="F32" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="16" t="s">
+      <c r="G32" s="15"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="J32" s="17"/>
-      <c r="K32" s="18"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="16"/>
       <c r="N32" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="O32" s="14" t="s">
+      <c r="O32" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="14" t="s">
+      <c r="P32" s="27"/>
+      <c r="Q32" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="R32" s="14"/>
-      <c r="S32" s="16" t="s">
+      <c r="R32" s="20"/>
+      <c r="S32" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="T32" s="17"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="16" t="s">
+      <c r="T32" s="15"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="W32" s="17"/>
-      <c r="X32" s="18"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="16"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="14" t="s">
+      <c r="C33" s="21"/>
+      <c r="D33" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="18"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="16"/>
       <c r="N33" s="13"/>
-      <c r="O33" s="14" t="s">
+      <c r="O33" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="14" t="s">
+      <c r="P33" s="21"/>
+      <c r="Q33" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="R33" s="14"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="18"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="16"/>
     </row>
     <row r="34" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="20" t="s">
+      <c r="C34" s="21"/>
+      <c r="D34" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="18"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="16"/>
       <c r="N34" s="13"/>
-      <c r="O34" s="14" t="s">
+      <c r="O34" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="20" t="s">
+      <c r="P34" s="21"/>
+      <c r="Q34" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="R34" s="21"/>
-      <c r="S34" s="16" t="s">
+      <c r="R34" s="26"/>
+      <c r="S34" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T34" s="17"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="16" t="s">
+      <c r="T34" s="15"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="W34" s="17"/>
-      <c r="X34" s="18"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="16"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="14" t="s">
+      <c r="C35" s="21"/>
+      <c r="D35" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="18"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="16"/>
       <c r="N35" s="13"/>
-      <c r="O35" s="14" t="s">
+      <c r="O35" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="14" t="s">
+      <c r="P35" s="21"/>
+      <c r="Q35" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="R35" s="14"/>
-      <c r="S35" s="16" t="s">
+      <c r="R35" s="20"/>
+      <c r="S35" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="T35" s="17"/>
-      <c r="U35" s="18"/>
-      <c r="V35" s="16" t="s">
+      <c r="T35" s="15"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="W35" s="17"/>
-      <c r="X35" s="18"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="16"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="20" t="s">
+      <c r="C36" s="21"/>
+      <c r="D36" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="18"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="16"/>
       <c r="N36" s="13"/>
-      <c r="O36" s="14" t="s">
+      <c r="O36" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="20" t="s">
+      <c r="P36" s="21"/>
+      <c r="Q36" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="R36" s="21"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="18"/>
-      <c r="V36" s="16"/>
-      <c r="W36" s="17"/>
-      <c r="X36" s="18"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="16"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="23" t="s">
+      <c r="C37" s="27"/>
+      <c r="D37" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="16" t="s">
+      <c r="E37" s="29"/>
+      <c r="F37" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="16" t="s">
+      <c r="G37" s="15"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="J37" s="17"/>
-      <c r="K37" s="18"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="16"/>
       <c r="N37" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="O37" s="14" t="s">
+      <c r="O37" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="23" t="s">
+      <c r="P37" s="27"/>
+      <c r="Q37" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="R37" s="24"/>
-      <c r="S37" s="16" t="s">
+      <c r="R37" s="29"/>
+      <c r="S37" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T37" s="17"/>
-      <c r="U37" s="18"/>
-      <c r="V37" s="16" t="s">
+      <c r="T37" s="15"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="W37" s="17"/>
-      <c r="X37" s="18"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="16"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="23" t="s">
+      <c r="C38" s="21"/>
+      <c r="D38" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="18"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="16"/>
       <c r="N38" s="13"/>
-      <c r="O38" s="14" t="s">
+      <c r="O38" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="23" t="s">
+      <c r="P38" s="21"/>
+      <c r="Q38" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="R38" s="24"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="17"/>
-      <c r="X38" s="18"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="16"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="13"/>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="20" t="s">
+      <c r="C39" s="21"/>
+      <c r="D39" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="18"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="16"/>
       <c r="N39" s="13"/>
-      <c r="O39" s="14" t="s">
+      <c r="O39" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="20" t="s">
+      <c r="P39" s="21"/>
+      <c r="Q39" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="R39" s="21"/>
-      <c r="S39" s="16" t="s">
+      <c r="R39" s="26"/>
+      <c r="S39" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T39" s="17"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="16" t="s">
+      <c r="T39" s="15"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="W39" s="17"/>
-      <c r="X39" s="18"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="16"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" s="13"/>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="23" t="s">
+      <c r="C40" s="21"/>
+      <c r="D40" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="18"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="16"/>
       <c r="N40" s="13"/>
-      <c r="O40" s="14" t="s">
+      <c r="O40" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="R40" s="14"/>
-      <c r="S40" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="T40" s="17"/>
-      <c r="U40" s="18"/>
-      <c r="V40" s="16" t="s">
+      <c r="P40" s="21"/>
+      <c r="Q40" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="R40" s="20"/>
+      <c r="S40" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="T40" s="15"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="W40" s="17"/>
-      <c r="X40" s="18"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="16"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" s="13"/>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="20" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="18"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="16"/>
       <c r="N41" s="13"/>
-      <c r="O41" s="14" t="s">
+      <c r="O41" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="20" t="s">
+      <c r="P41" s="21"/>
+      <c r="Q41" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="R41" s="21"/>
-      <c r="S41" s="16"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="18"/>
-      <c r="V41" s="16"/>
-      <c r="W41" s="17"/>
-      <c r="X41" s="18"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="15"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="16"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="14" t="s">
+      <c r="C42" s="27"/>
+      <c r="D42" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="16" t="s">
+      <c r="E42" s="20"/>
+      <c r="F42" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="16" t="s">
+      <c r="G42" s="15"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="J42" s="17"/>
-      <c r="K42" s="18"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="16"/>
       <c r="N42" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="O42" s="14" t="s">
+      <c r="O42" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="14" t="s">
+      <c r="P42" s="27"/>
+      <c r="Q42" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="R42" s="14"/>
-      <c r="S42" s="16" t="s">
+      <c r="R42" s="20"/>
+      <c r="S42" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="T42" s="17"/>
-      <c r="U42" s="18"/>
-      <c r="V42" s="16" t="s">
+      <c r="T42" s="15"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="W42" s="17"/>
-      <c r="X42" s="18"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="16"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="14" t="s">
+      <c r="C43" s="21"/>
+      <c r="D43" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="18"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="16"/>
       <c r="N43" s="13"/>
-      <c r="O43" s="14" t="s">
+      <c r="O43" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="14" t="s">
+      <c r="P43" s="21"/>
+      <c r="Q43" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="R43" s="14"/>
-      <c r="S43" s="16"/>
-      <c r="T43" s="17"/>
-      <c r="U43" s="18"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="17"/>
-      <c r="X43" s="18"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="15"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="15"/>
+      <c r="X43" s="16"/>
     </row>
     <row r="44" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13"/>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="20" t="s">
+      <c r="C44" s="21"/>
+      <c r="D44" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="21"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="18"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="16"/>
       <c r="N44" s="13"/>
-      <c r="O44" s="14" t="s">
+      <c r="O44" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="20" t="s">
+      <c r="P44" s="21"/>
+      <c r="Q44" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="R44" s="21"/>
-      <c r="S44" s="16" t="s">
+      <c r="R44" s="26"/>
+      <c r="S44" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T44" s="17"/>
-      <c r="U44" s="18"/>
-      <c r="V44" s="16" t="s">
+      <c r="T44" s="15"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="W44" s="17"/>
-      <c r="X44" s="18"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="16"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" s="13"/>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="14" t="s">
+      <c r="C45" s="21"/>
+      <c r="D45" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="18"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="16"/>
       <c r="N45" s="13"/>
-      <c r="O45" s="14" t="s">
+      <c r="O45" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="R45" s="14"/>
-      <c r="S45" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="T45" s="17"/>
-      <c r="U45" s="18"/>
-      <c r="V45" s="16" t="s">
+      <c r="P45" s="21"/>
+      <c r="Q45" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="R45" s="20"/>
+      <c r="S45" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="T45" s="15"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="W45" s="17"/>
-      <c r="X45" s="18"/>
+      <c r="W45" s="15"/>
+      <c r="X45" s="16"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" s="13"/>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="20" t="s">
+      <c r="C46" s="21"/>
+      <c r="D46" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="21"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="18"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="16"/>
       <c r="N46" s="13"/>
-      <c r="O46" s="14" t="s">
+      <c r="O46" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="20" t="s">
+      <c r="P46" s="21"/>
+      <c r="Q46" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="R46" s="21"/>
-      <c r="S46" s="16"/>
-      <c r="T46" s="17"/>
-      <c r="U46" s="18"/>
-      <c r="V46" s="16"/>
-      <c r="W46" s="17"/>
-      <c r="X46" s="18"/>
+      <c r="R46" s="26"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="15"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="16"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="23" t="s">
+      <c r="C47" s="27"/>
+      <c r="D47" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="16" t="s">
+      <c r="E47" s="29"/>
+      <c r="F47" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G47" s="17"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="16" t="s">
+      <c r="G47" s="15"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="J47" s="17"/>
-      <c r="K47" s="18"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="16"/>
       <c r="N47" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="O47" s="14" t="s">
+      <c r="O47" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="23" t="s">
+      <c r="P47" s="27"/>
+      <c r="Q47" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="R47" s="24"/>
-      <c r="S47" s="16" t="s">
+      <c r="R47" s="29"/>
+      <c r="S47" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="T47" s="17"/>
-      <c r="U47" s="18"/>
-      <c r="V47" s="16" t="s">
+      <c r="T47" s="15"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="W47" s="17"/>
-      <c r="X47" s="18"/>
+      <c r="W47" s="15"/>
+      <c r="X47" s="16"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" s="13"/>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="23" t="s">
+      <c r="C48" s="21"/>
+      <c r="D48" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="24"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="18"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="16"/>
       <c r="N48" s="13"/>
-      <c r="O48" s="14" t="s">
+      <c r="O48" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="23" t="s">
+      <c r="P48" s="21"/>
+      <c r="Q48" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="R48" s="24"/>
-      <c r="S48" s="23"/>
-      <c r="T48" s="25"/>
-      <c r="U48" s="24"/>
-      <c r="V48" s="16"/>
-      <c r="W48" s="17"/>
-      <c r="X48" s="18"/>
+      <c r="R48" s="29"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="30"/>
+      <c r="U48" s="29"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="16"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" s="13"/>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="20" t="s">
+      <c r="C49" s="21"/>
+      <c r="D49" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E49" s="21"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="18"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="16"/>
       <c r="N49" s="13"/>
-      <c r="O49" s="14" t="s">
+      <c r="O49" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="20" t="s">
+      <c r="P49" s="21"/>
+      <c r="Q49" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="R49" s="21"/>
-      <c r="S49" s="16" t="s">
+      <c r="R49" s="26"/>
+      <c r="S49" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T49" s="17"/>
-      <c r="U49" s="18"/>
-      <c r="V49" s="16" t="s">
+      <c r="T49" s="15"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="W49" s="17"/>
-      <c r="X49" s="18"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="16"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" s="13"/>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="23" t="s">
+      <c r="C50" s="21"/>
+      <c r="D50" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E50" s="24"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="18"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="16"/>
       <c r="N50" s="13"/>
-      <c r="O50" s="14" t="s">
+      <c r="O50" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="23" t="s">
+      <c r="P50" s="21"/>
+      <c r="Q50" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="R50" s="24"/>
-      <c r="S50" s="16" t="s">
+      <c r="R50" s="29"/>
+      <c r="S50" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="T50" s="17"/>
-      <c r="U50" s="18"/>
-      <c r="V50" s="16" t="s">
+      <c r="T50" s="15"/>
+      <c r="U50" s="16"/>
+      <c r="V50" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="W50" s="17"/>
-      <c r="X50" s="18"/>
+      <c r="W50" s="15"/>
+      <c r="X50" s="16"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" s="13"/>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="20" t="s">
+      <c r="C51" s="21"/>
+      <c r="D51" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E51" s="21"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="18"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="16"/>
       <c r="N51" s="13"/>
-      <c r="O51" s="14" t="s">
+      <c r="O51" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="20" t="s">
+      <c r="P51" s="21"/>
+      <c r="Q51" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="R51" s="21"/>
-      <c r="S51" s="16"/>
-      <c r="T51" s="17"/>
-      <c r="U51" s="18"/>
-      <c r="V51" s="16"/>
-      <c r="W51" s="17"/>
-      <c r="X51" s="18"/>
+      <c r="R51" s="26"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="15"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="14"/>
+      <c r="W51" s="15"/>
+      <c r="X51" s="16"/>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="14" t="s">
+      <c r="C52" s="27"/>
+      <c r="D52" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="16" t="s">
+      <c r="E52" s="20"/>
+      <c r="F52" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G52" s="17"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="16" t="s">
+      <c r="G52" s="15"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="J52" s="17"/>
-      <c r="K52" s="18"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="16"/>
       <c r="N52" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O52" s="14" t="s">
+      <c r="O52" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="14" t="s">
+      <c r="P52" s="27"/>
+      <c r="Q52" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="R52" s="14"/>
-      <c r="S52" s="16" t="s">
+      <c r="R52" s="20"/>
+      <c r="S52" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="T52" s="17"/>
-      <c r="U52" s="18"/>
-      <c r="V52" s="16" t="s">
+      <c r="T52" s="15"/>
+      <c r="U52" s="16"/>
+      <c r="V52" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="W52" s="17"/>
-      <c r="X52" s="18"/>
+      <c r="W52" s="15"/>
+      <c r="X52" s="16"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" s="13"/>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="14" t="s">
+      <c r="C53" s="21"/>
+      <c r="D53" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
       <c r="N53" s="13"/>
-      <c r="O53" s="14" t="s">
+      <c r="O53" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="14" t="s">
+      <c r="P53" s="21"/>
+      <c r="Q53" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="R53" s="14"/>
-      <c r="S53" s="14"/>
-      <c r="T53" s="14"/>
-      <c r="U53" s="14"/>
-      <c r="V53" s="14"/>
-      <c r="W53" s="14"/>
-      <c r="X53" s="14"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="20"/>
+      <c r="T53" s="20"/>
+      <c r="U53" s="20"/>
+      <c r="V53" s="20"/>
+      <c r="W53" s="20"/>
+      <c r="X53" s="20"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" s="13"/>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="14" t="s">
+      <c r="C54" s="21"/>
+      <c r="D54" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
       <c r="N54" s="13"/>
-      <c r="O54" s="14" t="s">
+      <c r="O54" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="14" t="s">
+      <c r="P54" s="21"/>
+      <c r="Q54" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="R54" s="14"/>
-      <c r="S54" s="14" t="s">
+      <c r="R54" s="20"/>
+      <c r="S54" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="T54" s="14"/>
-      <c r="U54" s="14"/>
-      <c r="V54" s="16" t="s">
+      <c r="T54" s="20"/>
+      <c r="U54" s="20"/>
+      <c r="V54" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="W54" s="17"/>
-      <c r="X54" s="18"/>
+      <c r="W54" s="15"/>
+      <c r="X54" s="16"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" s="13"/>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="14" t="s">
+      <c r="C55" s="21"/>
+      <c r="D55" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
       <c r="N55" s="13"/>
-      <c r="O55" s="14" t="s">
+      <c r="O55" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="14" t="s">
+      <c r="P55" s="21"/>
+      <c r="Q55" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="R55" s="14"/>
-      <c r="S55" s="14" t="s">
+      <c r="R55" s="20"/>
+      <c r="S55" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="T55" s="14"/>
-      <c r="U55" s="14"/>
-      <c r="V55" s="16" t="s">
+      <c r="T55" s="20"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="W55" s="17"/>
-      <c r="X55" s="18"/>
+      <c r="W55" s="15"/>
+      <c r="X55" s="16"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" s="13"/>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="19" t="s">
+      <c r="C56" s="21"/>
+      <c r="D56" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E56" s="19"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
       <c r="N56" s="13"/>
-      <c r="O56" s="14" t="s">
+      <c r="O56" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="P56" s="15"/>
-      <c r="Q56" s="19" t="s">
+      <c r="P56" s="21"/>
+      <c r="Q56" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="R56" s="19"/>
-      <c r="S56" s="14" t="s">
+      <c r="R56" s="22"/>
+      <c r="S56" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="T56" s="14"/>
-      <c r="U56" s="14"/>
-      <c r="V56" s="14" t="s">
+      <c r="T56" s="20"/>
+      <c r="U56" s="20"/>
+      <c r="V56" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="W56" s="14"/>
-      <c r="X56" s="14"/>
+      <c r="W56" s="20"/>
+      <c r="X56" s="20"/>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
-      <c r="B57" s="44"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -2748,10 +2748,10 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" s="12"/>
-      <c r="B58" s="44"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -2761,10 +2761,10 @@
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" s="12"/>
-      <c r="B59" s="44"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="46"/>
-      <c r="E59" s="46"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -2774,10 +2774,10 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" s="12"/>
-      <c r="B60" s="44"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="48"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -2787,184 +2787,239 @@
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" s="12"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="46"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="44"/>
-      <c r="K61" s="44"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="410">
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="I61:K61"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="F10:H11"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:U42"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:U39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:U40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="V41:X41"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:U38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:U35"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="S10:U11"/>
+    <mergeCell ref="V10:X11"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:X1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F21:H21"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
@@ -2989,227 +3044,172 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="F10:H11"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:X1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="S10:U11"/>
-    <mergeCell ref="V10:X11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="S35:U35"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:U37"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:U38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:U39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:U40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:U41"/>
-    <mergeCell ref="V41:X41"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:U42"/>
-    <mergeCell ref="V42:X42"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="I61:K61"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
